--- a/contratos/contratos-3-2011.xlsx
+++ b/contratos/contratos-3-2011.xlsx
@@ -520,13 +520,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>DEVOL S.A.</t>
@@ -832,331 +832,331 @@
     <t>44</t>
   </si>
   <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>1.013,00</t>
-  </si>
-  <si>
-    <t>5.074,14</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>529,21</t>
-  </si>
-  <si>
-    <t>1.538,54</t>
-  </si>
-  <si>
-    <t>1.178,98</t>
-  </si>
-  <si>
-    <t>188,00</t>
-  </si>
-  <si>
-    <t>1.496,00</t>
-  </si>
-  <si>
-    <t>27.790,00</t>
-  </si>
-  <si>
-    <t>114.719,08</t>
-  </si>
-  <si>
-    <t>19.911,04</t>
-  </si>
-  <si>
-    <t>6.917,32</t>
-  </si>
-  <si>
-    <t>7.133,61</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>1.086,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>662,00</t>
-  </si>
-  <si>
-    <t>21.520,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>7.407,50</t>
-  </si>
-  <si>
-    <t>615,54</t>
-  </si>
-  <si>
-    <t>27.566,60</t>
-  </si>
-  <si>
-    <t>1.597,98</t>
-  </si>
-  <si>
-    <t>11.130,00</t>
-  </si>
-  <si>
-    <t>6.174,00</t>
-  </si>
-  <si>
-    <t>25.259,11</t>
-  </si>
-  <si>
-    <t>1.756,48</t>
-  </si>
-  <si>
-    <t>200,75</t>
-  </si>
-  <si>
-    <t>99.092,50</t>
-  </si>
-  <si>
-    <t>3.071,00</t>
-  </si>
-  <si>
-    <t>102,00</t>
-  </si>
-  <si>
-    <t>1.023,00</t>
-  </si>
-  <si>
-    <t>52,00</t>
-  </si>
-  <si>
-    <t>13,60</t>
-  </si>
-  <si>
-    <t>412,00</t>
-  </si>
-  <si>
-    <t>832,00</t>
-  </si>
-  <si>
-    <t>5.415,00</t>
-  </si>
-  <si>
-    <t>452,00</t>
-  </si>
-  <si>
-    <t>6.350,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>1.399,98</t>
-  </si>
-  <si>
-    <t>28.800,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>4.677,40</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>9.919,25</t>
-  </si>
-  <si>
-    <t>18.639,87</t>
-  </si>
-  <si>
-    <t>307,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>4,20</t>
-  </si>
-  <si>
-    <t>179.500,00</t>
-  </si>
-  <si>
-    <t>0,02</t>
-  </si>
-  <si>
-    <t>103.770,00</t>
-  </si>
-  <si>
-    <t>148,58</t>
-  </si>
-  <si>
-    <t>7.052,00</t>
-  </si>
-  <si>
-    <t>1.517,00</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>4.860,00</t>
-  </si>
-  <si>
-    <t>130,20</t>
-  </si>
-  <si>
-    <t>5.740,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>39.968,00</t>
-  </si>
-  <si>
-    <t>18.600,00</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>657,28</t>
-  </si>
-  <si>
-    <t>110,34</t>
-  </si>
-  <si>
-    <t>428,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>456,00</t>
-  </si>
-  <si>
-    <t>119,00</t>
-  </si>
-  <si>
-    <t>250,87</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>1.114,00</t>
-  </si>
-  <si>
-    <t>673,04</t>
-  </si>
-  <si>
-    <t>9.075,00</t>
-  </si>
-  <si>
-    <t>751,44</t>
-  </si>
-  <si>
-    <t>2.686,99</t>
-  </si>
-  <si>
-    <t>2.495,90</t>
-  </si>
-  <si>
-    <t>19.449,00</t>
-  </si>
-  <si>
-    <t>94,00</t>
-  </si>
-  <si>
-    <t>1.599,64</t>
-  </si>
-  <si>
-    <t>1.625,08</t>
-  </si>
-  <si>
-    <t>93,00</t>
-  </si>
-  <si>
-    <t>1.238,80</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>37,50</t>
-  </si>
-  <si>
-    <t>525,00</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>23.011,70</t>
-  </si>
-  <si>
-    <t>2.566,88</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>350.956,56</t>
-  </si>
-  <si>
-    <t>2.326,96</t>
-  </si>
-  <si>
-    <t>380.000,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>358.418,00</t>
-  </si>
-  <si>
-    <t>243.986,00</t>
-  </si>
-  <si>
-    <t>279.416,00</t>
-  </si>
-  <si>
-    <t>360.000,00</t>
-  </si>
-  <si>
-    <t>199.202,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>284,75</t>
-  </si>
-  <si>
-    <t>1.228,00</t>
-  </si>
-  <si>
-    <t>825.000,00</t>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>1013.00</t>
+  </si>
+  <si>
+    <t>5074.14</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>529.21</t>
+  </si>
+  <si>
+    <t>1538.54</t>
+  </si>
+  <si>
+    <t>1178.98</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>1496.00</t>
+  </si>
+  <si>
+    <t>27790.00</t>
+  </si>
+  <si>
+    <t>114719.08</t>
+  </si>
+  <si>
+    <t>19911.04</t>
+  </si>
+  <si>
+    <t>6917.32</t>
+  </si>
+  <si>
+    <t>7133.61</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>1086.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>662.00</t>
+  </si>
+  <si>
+    <t>21520.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>7407.50</t>
+  </si>
+  <si>
+    <t>615.54</t>
+  </si>
+  <si>
+    <t>27566.60</t>
+  </si>
+  <si>
+    <t>1597.98</t>
+  </si>
+  <si>
+    <t>11130.00</t>
+  </si>
+  <si>
+    <t>6174.00</t>
+  </si>
+  <si>
+    <t>25259.11</t>
+  </si>
+  <si>
+    <t>1756.48</t>
+  </si>
+  <si>
+    <t>200.75</t>
+  </si>
+  <si>
+    <t>99092.50</t>
+  </si>
+  <si>
+    <t>3071.00</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>1023.00</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>13.60</t>
+  </si>
+  <si>
+    <t>412.00</t>
+  </si>
+  <si>
+    <t>832.00</t>
+  </si>
+  <si>
+    <t>5415.00</t>
+  </si>
+  <si>
+    <t>452.00</t>
+  </si>
+  <si>
+    <t>6350.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>1399.98</t>
+  </si>
+  <si>
+    <t>28800.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>4677.40</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>9919.25</t>
+  </si>
+  <si>
+    <t>18639.87</t>
+  </si>
+  <si>
+    <t>307.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>179500.00</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>103770.00</t>
+  </si>
+  <si>
+    <t>148.58</t>
+  </si>
+  <si>
+    <t>7052.00</t>
+  </si>
+  <si>
+    <t>1517.00</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>4860.00</t>
+  </si>
+  <si>
+    <t>130.20</t>
+  </si>
+  <si>
+    <t>5740.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>39968.00</t>
+  </si>
+  <si>
+    <t>18600.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>657.28</t>
+  </si>
+  <si>
+    <t>110.34</t>
+  </si>
+  <si>
+    <t>428.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>456.00</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>250.87</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>1114.00</t>
+  </si>
+  <si>
+    <t>673.04</t>
+  </si>
+  <si>
+    <t>9075.00</t>
+  </si>
+  <si>
+    <t>751.44</t>
+  </si>
+  <si>
+    <t>2686.99</t>
+  </si>
+  <si>
+    <t>2495.90</t>
+  </si>
+  <si>
+    <t>19449.00</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>1599.64</t>
+  </si>
+  <si>
+    <t>1625.08</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>1238.80</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>23011.70</t>
+  </si>
+  <si>
+    <t>2566.88</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>350956.56</t>
+  </si>
+  <si>
+    <t>2326.96</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>358418.00</t>
+  </si>
+  <si>
+    <t>243986.00</t>
+  </si>
+  <si>
+    <t>279416.00</t>
+  </si>
+  <si>
+    <t>360000.00</t>
+  </si>
+  <si>
+    <t>199202.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>284.75</t>
+  </si>
+  <si>
+    <t>1228.00</t>
+  </si>
+  <si>
+    <t>825000.00</t>
   </si>
 </sst>
 </file>
